--- a/data/geum/총량/대청_2020.xlsx
+++ b/data/geum/총량/대청_2020.xlsx
@@ -1,18 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\사업관련\환경AI\모듈작업\water-quality\data\geum\총량\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12390"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="706" uniqueCount="130">
   <si>
     <t>dt</t>
   </si>
@@ -402,36 +409,38 @@
   </si>
   <si>
     <t>20200914</t>
-  </si>
-  <si>
-    <t>2020-09-24 12:00</t>
-  </si>
-  <si>
-    <t>20200923</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
-    <numFmt numFmtId="164" formatCode="0.000000"/>
-    <numFmt numFmtId="165" formatCode="0.00000"/>
-    <numFmt numFmtId="166" formatCode="0.000"/>
-    <numFmt numFmtId="167" formatCode="0.0"/>
+    <numFmt numFmtId="176" formatCode="0.000000"/>
+    <numFmt numFmtId="177" formatCode="0.00000"/>
+    <numFmt numFmtId="178" formatCode="0.000"/>
+    <numFmt numFmtId="179" formatCode="0.0"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -449,7 +458,13 @@
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -457,17 +472,25 @@
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -476,10 +499,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -725,83 +748,85 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
+  <dimension ref="A1:BJ29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I28" sqref="I28"/>
+    </sheetView>
   </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.44" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.56" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.56" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.78" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.78" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.78" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.33" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.56" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.44" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.22" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.22" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.33" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.56" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.33" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.56" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.33" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.56" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="10.75" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.25" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.25" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.5" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="10" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11.22" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="9.78" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="9.75" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="11" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="10.33" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="12.56" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="12.5" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="10" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="11.22" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="10.33" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="12.56" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="10.33" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="9.56" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="9.5" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="11" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="8.33" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="9.33" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="9.56" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="9.33" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="7.67" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="8.375" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="9.375" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="9.375" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="7.625" bestFit="1" customWidth="1"/>
     <col min="36" max="36" width="8" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="7.89" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="9.11" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="10.67" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="10.67" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="7.89" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="9.11" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="9.44" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="9.78" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="8.89" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="14.11" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="15.56" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="12.89" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="13.89" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="14.11" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="13.89" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="12.22" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="12.56" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="12.44" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="13.67" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="15.22" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="15.22" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="12.44" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="13.67" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="7.875" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="9.125" bestFit="1" customWidth="1"/>
+    <col min="39" max="40" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="7.875" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="9.125" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="8.875" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="12.875" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="53" max="54" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="13.625" bestFit="1" customWidth="1"/>
+    <col min="56" max="57" width="15.25" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="13.625" bestFit="1" customWidth="1"/>
     <col min="60" max="60" width="14" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="14.33" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="13.44" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="13.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -989,7 +1014,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>62</v>
       </c>
@@ -1072,13 +1097,13 @@
         <v>8</v>
       </c>
       <c r="AE2" s="5">
-        <v>7.7000000000000002</v>
+        <v>7.7</v>
       </c>
       <c r="AF2" s="5">
-        <v>8.0999999999999996</v>
+        <v>8.1</v>
       </c>
       <c r="AG2" s="5">
-        <v>0.80000000000000004</v>
+        <v>0.8</v>
       </c>
       <c r="AH2" s="5">
         <v>4.5</v>
@@ -1099,25 +1124,25 @@
         <v>0.98199999999999998</v>
       </c>
       <c r="AN2" s="6">
-        <v>0.050000000000000003</v>
+        <v>0.05</v>
       </c>
       <c r="AO2" s="4">
-        <v>0.016</v>
+        <v>1.6E-2</v>
       </c>
       <c r="AP2" s="4">
-        <v>0.012</v>
+        <v>1.2E-2</v>
       </c>
       <c r="AQ2" s="4">
-        <v>0.001</v>
+        <v>1E-3</v>
       </c>
       <c r="AR2" s="5">
-        <v>2.6000000000000001</v>
+        <v>2.6</v>
       </c>
       <c r="AS2" s="5">
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>73</v>
       </c>
@@ -1197,16 +1222,16 @@
         <v>12.266999999999999</v>
       </c>
       <c r="AD3" s="5">
-        <v>7.0999999999999996</v>
+        <v>7.1</v>
       </c>
       <c r="AE3" s="5">
-        <v>7.4000000000000004</v>
+        <v>7.4</v>
       </c>
       <c r="AF3" s="5">
         <v>10.9</v>
       </c>
       <c r="AG3" s="5">
-        <v>0.29999999999999999</v>
+        <v>0.3</v>
       </c>
       <c r="AH3" s="5">
         <v>4.5</v>
@@ -1230,22 +1255,22 @@
         <v>0.14099999999999999</v>
       </c>
       <c r="AO3" s="4">
-        <v>0.035999999999999997</v>
+        <v>3.5999999999999997E-2</v>
       </c>
       <c r="AP3" s="4">
-        <v>0.025000000000000001</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="AQ3" s="4">
-        <v>0.0030000000000000001</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="AR3" s="5">
-        <v>2.3999999999999999</v>
+        <v>2.4</v>
       </c>
       <c r="AS3" s="5">
         <v>2.5</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>76</v>
       </c>
@@ -1325,19 +1350,19 @@
         <v>12.606999999999999</v>
       </c>
       <c r="AD4" s="5">
-        <v>7.0999999999999996</v>
+        <v>7.1</v>
       </c>
       <c r="AE4" s="5">
-        <v>7.2000000000000002</v>
+        <v>7.2</v>
       </c>
       <c r="AF4" s="5">
         <v>9.8000000000000007</v>
       </c>
       <c r="AG4" s="5">
-        <v>0.59999999999999998</v>
+        <v>0.6</v>
       </c>
       <c r="AH4" s="5">
-        <v>4.2999999999999998</v>
+        <v>4.3</v>
       </c>
       <c r="AI4" s="5">
         <v>1.2</v>
@@ -1355,25 +1380,25 @@
         <v>1.03</v>
       </c>
       <c r="AN4" s="4">
-        <v>0.086999999999999994</v>
+        <v>8.6999999999999994E-2</v>
       </c>
       <c r="AO4" s="4">
-        <v>0.012999999999999999</v>
+        <v>1.2999999999999999E-2</v>
       </c>
       <c r="AP4" s="4">
-        <v>0.010999999999999999</v>
+        <v>1.0999999999999999E-2</v>
       </c>
       <c r="AQ4" s="4">
-        <v>0.0030000000000000001</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="AR4" s="5">
         <v>1.7</v>
       </c>
       <c r="AS4" s="5">
-        <v>2.7000000000000002</v>
+        <v>2.7</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>79</v>
       </c>
@@ -1453,28 +1478,28 @@
         <v>12.327999999999999</v>
       </c>
       <c r="AD5" s="5">
-        <v>7.4000000000000004</v>
+        <v>7.4</v>
       </c>
       <c r="AE5" s="5">
-        <v>7.4000000000000004</v>
+        <v>7.4</v>
       </c>
       <c r="AF5" s="5">
-        <v>11.199999999999999</v>
+        <v>11.2</v>
       </c>
       <c r="AG5" s="5">
-        <v>0.40000000000000002</v>
+        <v>0.4</v>
       </c>
       <c r="AH5" s="5">
-        <v>4.2999999999999998</v>
+        <v>4.3</v>
       </c>
       <c r="AI5" s="5">
-        <v>0.90000000000000002</v>
+        <v>0.9</v>
       </c>
       <c r="AJ5">
         <v>169</v>
       </c>
       <c r="AK5" s="6">
-        <v>1.4299999999999999</v>
+        <v>1.43</v>
       </c>
       <c r="AL5" s="4">
         <v>1.3540000000000001</v>
@@ -1483,25 +1508,25 @@
         <v>1.0580000000000001</v>
       </c>
       <c r="AN5" s="6">
-        <v>0.080000000000000002</v>
+        <v>0.08</v>
       </c>
       <c r="AO5" s="4">
-        <v>0.016</v>
+        <v>1.6E-2</v>
       </c>
       <c r="AP5" s="4">
-        <v>0.0080000000000000002</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="AQ5" s="4">
-        <v>0.002</v>
+        <v>2E-3</v>
       </c>
       <c r="AR5" s="5">
         <v>2.2000000000000002</v>
       </c>
       <c r="AS5" s="5">
-        <v>2.3999999999999999</v>
+        <v>2.4</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>81</v>
       </c>
@@ -1581,22 +1606,22 @@
         <v>12.571999999999999</v>
       </c>
       <c r="AD6" s="5">
-        <v>5.5999999999999996</v>
+        <v>5.6</v>
       </c>
       <c r="AE6" s="5">
-        <v>7.5999999999999996</v>
+        <v>7.6</v>
       </c>
       <c r="AF6" s="5">
-        <v>12.699999999999999</v>
+        <v>12.7</v>
       </c>
       <c r="AG6">
         <v>1</v>
       </c>
       <c r="AH6" s="5">
-        <v>4.2999999999999998</v>
+        <v>4.3</v>
       </c>
       <c r="AI6" s="5">
-        <v>0.90000000000000002</v>
+        <v>0.9</v>
       </c>
       <c r="AJ6">
         <v>164</v>
@@ -1611,25 +1636,25 @@
         <v>1.131</v>
       </c>
       <c r="AN6" s="6">
-        <v>0.089999999999999997</v>
+        <v>0.09</v>
       </c>
       <c r="AO6" s="4">
-        <v>0.014</v>
+        <v>1.4E-2</v>
       </c>
       <c r="AP6" s="4">
-        <v>0.0060000000000000001</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="AQ6" s="4">
-        <v>0.002</v>
+        <v>2E-3</v>
       </c>
       <c r="AR6" s="5">
-        <v>2.6000000000000001</v>
+        <v>2.6</v>
       </c>
       <c r="AS6" s="5">
-        <v>2.1000000000000001</v>
+        <v>2.1</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>84</v>
       </c>
@@ -1706,10 +1731,10 @@
         <v>85</v>
       </c>
       <c r="AC7" s="6">
-        <v>12.359999999999999</v>
+        <v>12.36</v>
       </c>
       <c r="AD7" s="5">
-        <v>6.4000000000000004</v>
+        <v>6.4</v>
       </c>
       <c r="AE7" s="5">
         <v>7.5</v>
@@ -1721,10 +1746,10 @@
         <v>0.5</v>
       </c>
       <c r="AH7" s="5">
-        <v>4.2999999999999998</v>
+        <v>4.3</v>
       </c>
       <c r="AI7" s="5">
-        <v>1.3999999999999999</v>
+        <v>1.4</v>
       </c>
       <c r="AJ7">
         <v>164</v>
@@ -1733,31 +1758,31 @@
         <v>1.4430000000000001</v>
       </c>
       <c r="AL7" s="6">
-        <v>1.3700000000000001</v>
+        <v>1.37</v>
       </c>
       <c r="AM7" s="4">
         <v>1.117</v>
       </c>
       <c r="AN7" s="4">
-        <v>0.036999999999999998</v>
+        <v>3.6999999999999998E-2</v>
       </c>
       <c r="AO7" s="4">
-        <v>0.0089999999999999993</v>
+        <v>8.9999999999999993E-3</v>
       </c>
       <c r="AP7" s="4">
-        <v>0.0080000000000000002</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="AQ7" s="4">
-        <v>0.002</v>
+        <v>2E-3</v>
       </c>
       <c r="AR7" s="5">
-        <v>2.7999999999999998</v>
+        <v>2.8</v>
       </c>
       <c r="AS7" s="5">
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>86</v>
       </c>
@@ -1837,16 +1862,16 @@
         <v>12.282999999999999</v>
       </c>
       <c r="AD8" s="5">
-        <v>6.5999999999999996</v>
+        <v>6.6</v>
       </c>
       <c r="AE8" s="5">
-        <v>7.5999999999999996</v>
+        <v>7.6</v>
       </c>
       <c r="AF8" s="5">
-        <v>10.699999999999999</v>
+        <v>10.7</v>
       </c>
       <c r="AG8" s="5">
-        <v>0.40000000000000002</v>
+        <v>0.4</v>
       </c>
       <c r="AH8" s="5">
         <v>4.5</v>
@@ -1867,16 +1892,16 @@
         <v>1.1719999999999999</v>
       </c>
       <c r="AN8" s="4">
-        <v>0.076999999999999999</v>
+        <v>7.6999999999999999E-2</v>
       </c>
       <c r="AO8" s="4">
-        <v>0.0089999999999999993</v>
+        <v>8.9999999999999993E-3</v>
       </c>
       <c r="AP8" s="4">
-        <v>0.0040000000000000001</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="AQ8" s="4">
-        <v>0.002</v>
+        <v>2E-3</v>
       </c>
       <c r="AR8" s="5">
         <v>2.2999999999999998</v>
@@ -1885,7 +1910,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>88</v>
       </c>
@@ -1965,19 +1990,19 @@
         <v>75.775999999999996</v>
       </c>
       <c r="AD9" s="5">
-        <v>6.7999999999999998</v>
+        <v>6.8</v>
       </c>
       <c r="AE9" s="5">
-        <v>7.7999999999999998</v>
+        <v>7.8</v>
       </c>
       <c r="AF9">
         <v>12</v>
       </c>
       <c r="AG9" s="5">
-        <v>0.80000000000000004</v>
+        <v>0.8</v>
       </c>
       <c r="AH9" s="5">
-        <v>4.2999999999999998</v>
+        <v>4.3</v>
       </c>
       <c r="AI9" s="5">
         <v>1.2</v>
@@ -1995,25 +2020,25 @@
         <v>1.2050000000000001</v>
       </c>
       <c r="AN9" s="6">
-        <v>0.080000000000000002</v>
+        <v>0.08</v>
       </c>
       <c r="AO9" s="4">
-        <v>0.014</v>
+        <v>1.4E-2</v>
       </c>
       <c r="AP9" s="4">
-        <v>0.012</v>
+        <v>1.2E-2</v>
       </c>
       <c r="AQ9" s="4">
-        <v>0.002</v>
+        <v>2E-3</v>
       </c>
       <c r="AR9" s="5">
         <v>2.2999999999999998</v>
       </c>
       <c r="AS9" s="5">
-        <v>2.6000000000000001</v>
+        <v>2.6</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>90</v>
       </c>
@@ -2093,16 +2118,16 @@
         <v>25.788</v>
       </c>
       <c r="AD10" s="5">
-        <v>7.7000000000000002</v>
+        <v>7.7</v>
       </c>
       <c r="AE10" s="5">
-        <v>7.5999999999999996</v>
+        <v>7.6</v>
       </c>
       <c r="AF10" s="5">
         <v>11.5</v>
       </c>
       <c r="AG10" s="5">
-        <v>0.40000000000000002</v>
+        <v>0.4</v>
       </c>
       <c r="AH10" s="5">
         <v>4.5</v>
@@ -2123,25 +2148,25 @@
         <v>1.208</v>
       </c>
       <c r="AN10" s="4">
-        <v>0.025999999999999999</v>
+        <v>2.5999999999999999E-2</v>
       </c>
       <c r="AO10" s="4">
-        <v>0.014999999999999999</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="AP10" s="4">
-        <v>0.012999999999999999</v>
+        <v>1.2999999999999999E-2</v>
       </c>
       <c r="AQ10" s="4">
-        <v>0.002</v>
+        <v>2E-3</v>
       </c>
       <c r="AR10" s="5">
-        <v>3.1000000000000001</v>
+        <v>3.1</v>
       </c>
       <c r="AS10" s="5">
-        <v>2.7000000000000002</v>
+        <v>2.7</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>92</v>
       </c>
@@ -2221,19 +2246,19 @@
         <v>28.846</v>
       </c>
       <c r="AD11" s="5">
-        <v>7.7999999999999998</v>
+        <v>7.8</v>
       </c>
       <c r="AE11" s="5">
-        <v>7.5999999999999996</v>
+        <v>7.6</v>
       </c>
       <c r="AF11" s="5">
         <v>11.5</v>
       </c>
       <c r="AG11" s="5">
-        <v>0.69999999999999996</v>
+        <v>0.7</v>
       </c>
       <c r="AH11" s="5">
-        <v>4.2000000000000002</v>
+        <v>4.2</v>
       </c>
       <c r="AI11" s="5">
         <v>1.2</v>
@@ -2251,25 +2276,25 @@
         <v>1.2050000000000001</v>
       </c>
       <c r="AN11" s="4">
-        <v>0.051999999999999998</v>
+        <v>5.1999999999999998E-2</v>
       </c>
       <c r="AO11" s="4">
-        <v>0.010999999999999999</v>
+        <v>1.0999999999999999E-2</v>
       </c>
       <c r="AP11" s="6">
         <v>0.01</v>
       </c>
       <c r="AQ11" s="4">
-        <v>0.002</v>
+        <v>2E-3</v>
       </c>
       <c r="AR11" s="5">
         <v>2.5</v>
       </c>
       <c r="AS11" s="5">
-        <v>2.7999999999999998</v>
+        <v>2.8</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>94</v>
       </c>
@@ -2349,10 +2374,10 @@
         <v>24.919</v>
       </c>
       <c r="AD12" s="5">
-        <v>7.4000000000000004</v>
+        <v>7.4</v>
       </c>
       <c r="AE12" s="5">
-        <v>7.2999999999999998</v>
+        <v>7.3</v>
       </c>
       <c r="AF12" s="5">
         <v>11.6</v>
@@ -2361,7 +2386,7 @@
         <v>1</v>
       </c>
       <c r="AH12" s="5">
-        <v>4.2000000000000002</v>
+        <v>4.2</v>
       </c>
       <c r="AI12">
         <v>1</v>
@@ -2379,25 +2404,25 @@
         <v>1.216</v>
       </c>
       <c r="AN12" s="6">
-        <v>0.059999999999999998</v>
+        <v>0.06</v>
       </c>
       <c r="AO12" s="4">
-        <v>0.0070000000000000001</v>
+        <v>7.0000000000000001E-3</v>
       </c>
       <c r="AP12" s="4">
-        <v>0.0050000000000000001</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="AQ12" s="4">
-        <v>0.001</v>
+        <v>1E-3</v>
       </c>
       <c r="AR12" s="5">
         <v>1.8</v>
       </c>
       <c r="AS12" s="5">
-        <v>2.6000000000000001</v>
+        <v>2.6</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>96</v>
       </c>
@@ -2480,16 +2505,16 @@
         <v>8.1999999999999993</v>
       </c>
       <c r="AE13" s="5">
-        <v>7.2999999999999998</v>
+        <v>7.3</v>
       </c>
       <c r="AF13">
         <v>10</v>
       </c>
       <c r="AG13" s="5">
-        <v>0.80000000000000004</v>
+        <v>0.8</v>
       </c>
       <c r="AH13" s="5">
-        <v>4.2999999999999998</v>
+        <v>4.3</v>
       </c>
       <c r="AI13" s="5">
         <v>1.3</v>
@@ -2501,31 +2526,31 @@
         <v>1.397</v>
       </c>
       <c r="AL13" s="6">
-        <v>1.3700000000000001</v>
+        <v>1.37</v>
       </c>
       <c r="AM13" s="4">
         <v>1.2310000000000001</v>
       </c>
       <c r="AN13" s="4">
-        <v>0.055</v>
+        <v>5.5E-2</v>
       </c>
       <c r="AO13" s="4">
-        <v>0.010999999999999999</v>
+        <v>1.0999999999999999E-2</v>
       </c>
       <c r="AP13" s="6">
         <v>0.01</v>
       </c>
       <c r="AQ13" s="4">
-        <v>0.001</v>
+        <v>1E-3</v>
       </c>
       <c r="AR13" s="5">
-        <v>2.6000000000000001</v>
+        <v>2.6</v>
       </c>
       <c r="AS13" s="5">
         <v>2.5</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>98</v>
       </c>
@@ -2626,7 +2651,7 @@
         <v>158</v>
       </c>
       <c r="AK14" s="6">
-        <v>1.6499999999999999</v>
+        <v>1.65</v>
       </c>
       <c r="AL14" s="4">
         <v>1.472</v>
@@ -2635,25 +2660,25 @@
         <v>1.2230000000000001</v>
       </c>
       <c r="AN14" s="4">
-        <v>0.058999999999999997</v>
+        <v>5.8999999999999997E-2</v>
       </c>
       <c r="AO14" s="4">
-        <v>0.010999999999999999</v>
+        <v>1.0999999999999999E-2</v>
       </c>
       <c r="AP14" s="4">
-        <v>0.0050000000000000001</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="AQ14" s="4">
-        <v>0.001</v>
+        <v>1E-3</v>
       </c>
       <c r="AR14" s="5">
-        <v>2.1000000000000001</v>
+        <v>2.1</v>
       </c>
       <c r="AS14" s="5">
-        <v>3.1000000000000001</v>
+        <v>3.1</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>100</v>
       </c>
@@ -2736,16 +2761,16 @@
         <v>8.3000000000000007</v>
       </c>
       <c r="AE15" s="5">
-        <v>7.2999999999999998</v>
+        <v>7.3</v>
       </c>
       <c r="AF15" s="5">
         <v>9.8000000000000007</v>
       </c>
       <c r="AG15" s="5">
-        <v>0.59999999999999998</v>
+        <v>0.6</v>
       </c>
       <c r="AH15" s="5">
-        <v>4.2999999999999998</v>
+        <v>4.3</v>
       </c>
       <c r="AI15" s="5">
         <v>1.2</v>
@@ -2763,25 +2788,25 @@
         <v>1.24</v>
       </c>
       <c r="AN15" s="4">
-        <v>0.036999999999999998</v>
+        <v>3.6999999999999998E-2</v>
       </c>
       <c r="AO15" s="6">
         <v>0.01</v>
       </c>
       <c r="AP15" s="4">
-        <v>0.0080000000000000002</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="AQ15" s="4">
-        <v>0.001</v>
+        <v>1E-3</v>
       </c>
       <c r="AR15" s="5">
         <v>1.5</v>
       </c>
       <c r="AS15" s="5">
-        <v>2.6000000000000001</v>
+        <v>2.6</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>102</v>
       </c>
@@ -2861,19 +2886,19 @@
         <v>24.524999999999999</v>
       </c>
       <c r="AD16" s="5">
-        <v>8.4000000000000004</v>
+        <v>8.4</v>
       </c>
       <c r="AE16" s="5">
-        <v>7.2999999999999998</v>
+        <v>7.3</v>
       </c>
       <c r="AF16" s="5">
         <v>10.5</v>
       </c>
       <c r="AG16" s="5">
-        <v>0.40000000000000002</v>
+        <v>0.4</v>
       </c>
       <c r="AH16" s="5">
-        <v>4.2999999999999998</v>
+        <v>4.3</v>
       </c>
       <c r="AI16">
         <v>1</v>
@@ -2891,16 +2916,16 @@
         <v>1.2310000000000001</v>
       </c>
       <c r="AN16" s="6">
-        <v>0.059999999999999998</v>
+        <v>0.06</v>
       </c>
       <c r="AO16" s="4">
-        <v>0.014999999999999999</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="AP16" s="4">
-        <v>0.012999999999999999</v>
+        <v>1.2999999999999999E-2</v>
       </c>
       <c r="AQ16" s="4">
-        <v>0.001</v>
+        <v>1E-3</v>
       </c>
       <c r="AR16" s="5">
         <v>1.2</v>
@@ -2909,7 +2934,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>104</v>
       </c>
@@ -2992,16 +3017,16 @@
         <v>9.8000000000000007</v>
       </c>
       <c r="AE17" s="5">
-        <v>7.5999999999999996</v>
+        <v>7.6</v>
       </c>
       <c r="AF17" s="5">
-        <v>11.800000000000001</v>
+        <v>11.8</v>
       </c>
       <c r="AG17" s="5">
         <v>0.5</v>
       </c>
       <c r="AH17" s="5">
-        <v>4.2000000000000002</v>
+        <v>4.2</v>
       </c>
       <c r="AI17" s="5">
         <v>1.3</v>
@@ -3019,25 +3044,25 @@
         <v>1.2350000000000001</v>
       </c>
       <c r="AN17" s="4">
-        <v>0.070999999999999994</v>
+        <v>7.0999999999999994E-2</v>
       </c>
       <c r="AO17" s="4">
-        <v>0.017999999999999999</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="AP17" s="4">
-        <v>0.010999999999999999</v>
+        <v>1.0999999999999999E-2</v>
       </c>
       <c r="AQ17" s="4">
-        <v>0.002</v>
+        <v>2E-3</v>
       </c>
       <c r="AR17" s="5">
-        <v>2.7000000000000002</v>
+        <v>2.7</v>
       </c>
       <c r="AS17" s="5">
-        <v>2.6000000000000001</v>
+        <v>2.6</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>106</v>
       </c>
@@ -3117,19 +3142,19 @@
         <v>36.457999999999998</v>
       </c>
       <c r="AD18" s="5">
-        <v>9.5999999999999996</v>
+        <v>9.6</v>
       </c>
       <c r="AE18" s="5">
-        <v>7.5999999999999996</v>
+        <v>7.6</v>
       </c>
       <c r="AF18" s="5">
-        <v>11.199999999999999</v>
+        <v>11.2</v>
       </c>
       <c r="AG18" s="5">
-        <v>0.90000000000000002</v>
+        <v>0.9</v>
       </c>
       <c r="AH18" s="5">
-        <v>4.2000000000000002</v>
+        <v>4.2</v>
       </c>
       <c r="AI18" s="5">
         <v>2.2999999999999998</v>
@@ -3147,16 +3172,16 @@
         <v>1.242</v>
       </c>
       <c r="AN18" s="4">
-        <v>0.087999999999999995</v>
+        <v>8.7999999999999995E-2</v>
       </c>
       <c r="AO18" s="4">
-        <v>0.016</v>
+        <v>1.6E-2</v>
       </c>
       <c r="AP18" s="4">
-        <v>0.012999999999999999</v>
+        <v>1.2999999999999999E-2</v>
       </c>
       <c r="AQ18" s="4">
-        <v>0.001</v>
+        <v>1E-3</v>
       </c>
       <c r="AR18" s="5">
         <v>4.0999999999999996</v>
@@ -3165,7 +3190,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>108</v>
       </c>
@@ -3248,19 +3273,19 @@
         <v>10.1</v>
       </c>
       <c r="AE19" s="5">
-        <v>7.7999999999999998</v>
+        <v>7.8</v>
       </c>
       <c r="AF19" s="5">
-        <v>11.199999999999999</v>
+        <v>11.2</v>
       </c>
       <c r="AG19" s="5">
-        <v>0.90000000000000002</v>
+        <v>0.9</v>
       </c>
       <c r="AH19" s="5">
         <v>4.4000000000000004</v>
       </c>
       <c r="AI19" s="5">
-        <v>0.80000000000000004</v>
+        <v>0.8</v>
       </c>
       <c r="AJ19">
         <v>160</v>
@@ -3275,25 +3300,25 @@
         <v>1.2649999999999999</v>
       </c>
       <c r="AN19" s="4">
-        <v>0.029000000000000001</v>
+        <v>2.9000000000000001E-2</v>
       </c>
       <c r="AO19" s="4">
-        <v>0.021999999999999999</v>
+        <v>2.1999999999999999E-2</v>
       </c>
       <c r="AP19" s="4">
-        <v>0.014999999999999999</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="AQ19" s="4">
-        <v>0.001</v>
+        <v>1E-3</v>
       </c>
       <c r="AR19" s="5">
-        <v>2.8999999999999999</v>
+        <v>2.9</v>
       </c>
       <c r="AS19" s="5">
-        <v>3.1000000000000001</v>
+        <v>3.1</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>110</v>
       </c>
@@ -3376,19 +3401,19 @@
         <v>10.6</v>
       </c>
       <c r="AE20" s="5">
-        <v>7.5999999999999996</v>
+        <v>7.6</v>
       </c>
       <c r="AF20" s="5">
-        <v>11.300000000000001</v>
+        <v>11.3</v>
       </c>
       <c r="AG20" s="5">
-        <v>0.29999999999999999</v>
+        <v>0.3</v>
       </c>
       <c r="AH20" s="5">
-        <v>3.8999999999999999</v>
+        <v>3.9</v>
       </c>
       <c r="AI20" s="5">
-        <v>0.69999999999999996</v>
+        <v>0.7</v>
       </c>
       <c r="AJ20">
         <v>160</v>
@@ -3403,16 +3428,16 @@
         <v>1.29</v>
       </c>
       <c r="AN20" s="4">
-        <v>0.042999999999999997</v>
+        <v>4.2999999999999997E-2</v>
       </c>
       <c r="AO20" s="4">
-        <v>0.0089999999999999993</v>
+        <v>8.9999999999999993E-3</v>
       </c>
       <c r="AP20" s="4">
-        <v>0.0070000000000000001</v>
+        <v>7.0000000000000001E-3</v>
       </c>
       <c r="AQ20" s="4">
-        <v>0.001</v>
+        <v>1E-3</v>
       </c>
       <c r="AR20" s="5">
         <v>1.8</v>
@@ -3421,7 +3446,7 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>112</v>
       </c>
@@ -3501,16 +3526,16 @@
         <v>35.667999999999999</v>
       </c>
       <c r="AD21" s="5">
-        <v>10.800000000000001</v>
+        <v>10.8</v>
       </c>
       <c r="AE21" s="5">
-        <v>7.5999999999999996</v>
+        <v>7.6</v>
       </c>
       <c r="AF21" s="5">
         <v>9.8000000000000007</v>
       </c>
       <c r="AG21" s="5">
-        <v>0.69999999999999996</v>
+        <v>0.7</v>
       </c>
       <c r="AH21">
         <v>4</v>
@@ -3531,10 +3556,10 @@
         <v>1.242</v>
       </c>
       <c r="AN21" s="4">
-        <v>0.034000000000000002</v>
+        <v>3.4000000000000002E-2</v>
       </c>
       <c r="AO21" s="4">
-        <v>0.019</v>
+        <v>1.9E-2</v>
       </c>
       <c r="AP21" s="6">
         <v>0.01</v>
@@ -3549,7 +3574,7 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>114</v>
       </c>
@@ -3629,7 +3654,7 @@
         <v>128.315</v>
       </c>
       <c r="AD22" s="5">
-        <v>12.699999999999999</v>
+        <v>12.7</v>
       </c>
       <c r="AE22" s="5">
         <v>7.5</v>
@@ -3638,13 +3663,13 @@
         <v>8.6999999999999993</v>
       </c>
       <c r="AG22" s="5">
-        <v>0.80000000000000004</v>
+        <v>0.8</v>
       </c>
       <c r="AH22" s="5">
         <v>5.0999999999999996</v>
       </c>
       <c r="AI22" s="5">
-        <v>0.59999999999999998</v>
+        <v>0.6</v>
       </c>
       <c r="AJ22">
         <v>165</v>
@@ -3659,25 +3684,25 @@
         <v>1.2909999999999999</v>
       </c>
       <c r="AN22" s="4">
-        <v>0.021000000000000001</v>
+        <v>2.1000000000000001E-2</v>
       </c>
       <c r="AO22" s="4">
-        <v>0.028000000000000001</v>
+        <v>2.8000000000000001E-2</v>
       </c>
       <c r="AP22" s="4">
-        <v>0.025000000000000001</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="AQ22" s="4">
-        <v>0.001</v>
+        <v>1E-3</v>
       </c>
       <c r="AR22" s="5">
         <v>2.2999999999999998</v>
       </c>
       <c r="AS22" s="5">
-        <v>3.2000000000000002</v>
+        <v>3.2</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>116</v>
       </c>
@@ -3757,22 +3782,22 @@
         <v>455.73200000000003</v>
       </c>
       <c r="AD23" s="5">
-        <v>22.399999999999999</v>
+        <v>22.4</v>
       </c>
       <c r="AE23" s="5">
-        <v>7.7999999999999998</v>
+        <v>7.8</v>
       </c>
       <c r="AF23">
         <v>6</v>
       </c>
       <c r="AG23" s="5">
-        <v>0.90000000000000002</v>
+        <v>0.9</v>
       </c>
       <c r="AH23" s="5">
         <v>5.5</v>
       </c>
       <c r="AI23" s="5">
-        <v>3.3999999999999999</v>
+        <v>3.4</v>
       </c>
       <c r="AJ23">
         <v>144</v>
@@ -3787,10 +3812,10 @@
         <v>1.2589999999999999</v>
       </c>
       <c r="AN23" s="4">
-        <v>0.021999999999999999</v>
+        <v>2.1999999999999999E-2</v>
       </c>
       <c r="AO23" s="4">
-        <v>0.034000000000000002</v>
+        <v>3.4000000000000002E-2</v>
       </c>
       <c r="AP23" s="6">
         <v>0.01</v>
@@ -3799,13 +3824,13 @@
         <v>0.01</v>
       </c>
       <c r="AR23" s="5">
-        <v>5.4000000000000004</v>
+        <v>5.4</v>
       </c>
       <c r="AS23">
         <v>3</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>118</v>
       </c>
@@ -3885,22 +3910,22 @@
         <v>895.99599999999998</v>
       </c>
       <c r="AD24" s="5">
-        <v>22.600000000000001</v>
+        <v>22.6</v>
       </c>
       <c r="AE24" s="5">
-        <v>7.5999999999999996</v>
+        <v>7.6</v>
       </c>
       <c r="AF24" s="5">
-        <v>10.699999999999999</v>
+        <v>10.7</v>
       </c>
       <c r="AG24" s="5">
-        <v>0.69999999999999996</v>
+        <v>0.7</v>
       </c>
       <c r="AH24" s="5">
-        <v>6.2999999999999998</v>
+        <v>6.3</v>
       </c>
       <c r="AI24" s="5">
-        <v>21.800000000000001</v>
+        <v>21.8</v>
       </c>
       <c r="AJ24">
         <v>107</v>
@@ -3915,25 +3940,25 @@
         <v>1.327</v>
       </c>
       <c r="AN24" s="4">
-        <v>0.025999999999999999</v>
+        <v>2.5999999999999999E-2</v>
       </c>
       <c r="AO24" s="6">
-        <v>0.050000000000000003</v>
+        <v>0.05</v>
       </c>
       <c r="AP24" s="4">
-        <v>0.025000000000000001</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="AQ24" s="4">
-        <v>0.016</v>
+        <v>1.6E-2</v>
       </c>
       <c r="AR24" s="5">
-        <v>7.2000000000000002</v>
+        <v>7.2</v>
       </c>
       <c r="AS24" s="5">
-        <v>3.7999999999999998</v>
+        <v>3.8</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>120</v>
       </c>
@@ -4016,13 +4041,13 @@
         <v>20.5</v>
       </c>
       <c r="AE25" s="5">
-        <v>7.9000000000000004</v>
+        <v>7.9</v>
       </c>
       <c r="AF25" s="5">
         <v>8.3000000000000007</v>
       </c>
       <c r="AG25" s="5">
-        <v>0.40000000000000002</v>
+        <v>0.4</v>
       </c>
       <c r="AH25" s="5">
         <v>5.0999999999999996</v>
@@ -4043,25 +4068,25 @@
         <v>1.2749999999999999</v>
       </c>
       <c r="AN25" s="4">
-        <v>0.029000000000000001</v>
+        <v>2.9000000000000001E-2</v>
       </c>
       <c r="AO25" s="4">
-        <v>0.058999999999999997</v>
+        <v>5.8999999999999997E-2</v>
       </c>
       <c r="AP25" s="4">
-        <v>0.032000000000000001</v>
+        <v>3.2000000000000001E-2</v>
       </c>
       <c r="AQ25" s="4">
-        <v>0.014999999999999999</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="AR25" s="5">
-        <v>2.7999999999999998</v>
+        <v>2.8</v>
       </c>
       <c r="AS25" s="5">
-        <v>3.2000000000000002</v>
+        <v>3.2</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>122</v>
       </c>
@@ -4138,7 +4163,7 @@
         <v>123</v>
       </c>
       <c r="AC26" s="6">
-        <v>248.56999999999999</v>
+        <v>248.57</v>
       </c>
       <c r="AD26" s="5">
         <v>20.5</v>
@@ -4147,22 +4172,22 @@
         <v>7.5</v>
       </c>
       <c r="AF26" s="5">
-        <v>7.7000000000000002</v>
+        <v>7.7</v>
       </c>
       <c r="AG26" s="5">
-        <v>0.59999999999999998</v>
+        <v>0.6</v>
       </c>
       <c r="AH26">
         <v>5</v>
       </c>
       <c r="AI26" s="5">
-        <v>6.7999999999999998</v>
+        <v>6.8</v>
       </c>
       <c r="AJ26">
         <v>89</v>
       </c>
       <c r="AK26" s="6">
-        <v>1.9199999999999999</v>
+        <v>1.92</v>
       </c>
       <c r="AL26" s="4">
         <v>1.7729999999999999</v>
@@ -4171,25 +4196,25 @@
         <v>1.3080000000000001</v>
       </c>
       <c r="AN26" s="6">
-        <v>0.040000000000000001</v>
+        <v>0.04</v>
       </c>
       <c r="AO26" s="4">
-        <v>0.049000000000000002</v>
+        <v>4.9000000000000002E-2</v>
       </c>
       <c r="AP26" s="4">
-        <v>0.031</v>
+        <v>3.1E-2</v>
       </c>
       <c r="AQ26" s="4">
-        <v>0.017000000000000001</v>
+        <v>1.7000000000000001E-2</v>
       </c>
       <c r="AR26" s="5">
-        <v>3.6000000000000001</v>
+        <v>3.6</v>
       </c>
       <c r="AS26" s="5">
-        <v>3.2999999999999998</v>
+        <v>3.3</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>124</v>
       </c>
@@ -4272,25 +4297,25 @@
         <v>20.5</v>
       </c>
       <c r="AE27" s="5">
-        <v>7.9000000000000004</v>
+        <v>7.9</v>
       </c>
       <c r="AF27" s="5">
-        <v>7.7999999999999998</v>
+        <v>7.8</v>
       </c>
       <c r="AG27">
         <v>1</v>
       </c>
       <c r="AH27" s="5">
-        <v>4.7000000000000002</v>
+        <v>4.7</v>
       </c>
       <c r="AI27" s="5">
-        <v>6.2999999999999998</v>
+        <v>6.3</v>
       </c>
       <c r="AJ27">
         <v>90</v>
       </c>
       <c r="AK27" s="6">
-        <v>1.8300000000000001</v>
+        <v>1.83</v>
       </c>
       <c r="AL27" s="4">
         <v>1.7989999999999999</v>
@@ -4299,25 +4324,25 @@
         <v>1.278</v>
       </c>
       <c r="AN27" s="4">
-        <v>0.025000000000000001</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="AO27" s="4">
-        <v>0.033000000000000002</v>
+        <v>3.3000000000000002E-2</v>
       </c>
       <c r="AP27" s="4">
-        <v>0.021999999999999999</v>
+        <v>2.1999999999999999E-2</v>
       </c>
       <c r="AQ27" s="4">
-        <v>0.017999999999999999</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="AR27" s="5">
         <v>1.7</v>
       </c>
       <c r="AS27" s="5">
-        <v>2.7000000000000002</v>
+        <v>2.7</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>126</v>
       </c>
@@ -4397,22 +4422,22 @@
         <v>15.365</v>
       </c>
       <c r="AD28" s="5">
-        <v>22.399999999999999</v>
+        <v>22.4</v>
       </c>
       <c r="AE28" s="5">
-        <v>7.5999999999999996</v>
+        <v>7.6</v>
       </c>
       <c r="AF28" s="5">
-        <v>7.0999999999999996</v>
+        <v>7.1</v>
       </c>
       <c r="AG28" s="5">
         <v>1.1000000000000001</v>
       </c>
       <c r="AH28" s="5">
-        <v>5.7000000000000002</v>
+        <v>5.7</v>
       </c>
       <c r="AI28" s="5">
-        <v>15.699999999999999</v>
+        <v>15.7</v>
       </c>
       <c r="AJ28">
         <v>96</v>
@@ -4427,25 +4452,25 @@
         <v>1.2729999999999999</v>
       </c>
       <c r="AN28" s="4">
-        <v>0.058000000000000003</v>
+        <v>5.8000000000000003E-2</v>
       </c>
       <c r="AO28" s="4">
-        <v>0.055</v>
+        <v>5.5E-2</v>
       </c>
       <c r="AP28" s="4">
-        <v>0.034000000000000002</v>
+        <v>3.4000000000000002E-2</v>
       </c>
       <c r="AQ28" s="4">
-        <v>0.032000000000000001</v>
+        <v>3.2000000000000001E-2</v>
       </c>
       <c r="AR28" s="5">
-        <v>3.2999999999999998</v>
+        <v>3.3</v>
       </c>
       <c r="AS28" s="5">
-        <v>3.3999999999999999</v>
+        <v>3.4</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>128</v>
       </c>
@@ -4528,19 +4553,19 @@
         <v>21.5</v>
       </c>
       <c r="AE29" s="5">
-        <v>7.5999999999999996</v>
+        <v>7.6</v>
       </c>
       <c r="AF29" s="5">
-        <v>7.0999999999999996</v>
+        <v>7.1</v>
       </c>
       <c r="AG29" s="5">
-        <v>0.40000000000000002</v>
+        <v>0.4</v>
       </c>
       <c r="AH29" s="5">
-        <v>4.7000000000000002</v>
+        <v>4.7</v>
       </c>
       <c r="AI29" s="5">
-        <v>10.699999999999999</v>
+        <v>10.7</v>
       </c>
       <c r="AJ29">
         <v>89</v>
@@ -4552,156 +4577,29 @@
         <v>1.5389999999999999</v>
       </c>
       <c r="AM29" s="6">
-        <v>1.3600000000000001</v>
+        <v>1.36</v>
       </c>
       <c r="AN29" s="4">
-        <v>0.032000000000000001</v>
+        <v>3.2000000000000001E-2</v>
       </c>
       <c r="AO29" s="4">
-        <v>0.063</v>
+        <v>6.3E-2</v>
       </c>
       <c r="AP29" s="4">
-        <v>0.049000000000000002</v>
+        <v>4.9000000000000002E-2</v>
       </c>
       <c r="AQ29" s="4">
-        <v>0.017999999999999999</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="AR29">
         <v>1</v>
       </c>
       <c r="AS29" s="5">
-        <v>2.8999999999999999</v>
+        <v>2.9</v>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" t="s">
-        <v>130</v>
-      </c>
-      <c r="B30" t="s">
-        <v>74</v>
-      </c>
-      <c r="C30" t="s">
-        <v>64</v>
-      </c>
-      <c r="D30" t="s">
-        <v>65</v>
-      </c>
-      <c r="E30" s="2">
-        <v>36.472957999999998</v>
-      </c>
-      <c r="F30" s="3">
-        <v>127.47738</v>
-      </c>
-      <c r="G30" t="s">
-        <v>66</v>
-      </c>
-      <c r="H30" t="s">
-        <v>67</v>
-      </c>
-      <c r="L30" t="s">
-        <v>66</v>
-      </c>
-      <c r="M30" t="s">
-        <v>67</v>
-      </c>
-      <c r="N30" t="s">
-        <v>66</v>
-      </c>
-      <c r="O30" t="s">
-        <v>68</v>
-      </c>
-      <c r="P30" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q30" t="s">
-        <v>70</v>
-      </c>
-      <c r="R30" t="s">
-        <v>71</v>
-      </c>
-      <c r="S30" t="s">
-        <v>71</v>
-      </c>
-      <c r="T30" t="s">
-        <v>71</v>
-      </c>
-      <c r="U30" t="s">
-        <v>71</v>
-      </c>
-      <c r="V30" t="s">
-        <v>66</v>
-      </c>
-      <c r="W30" t="s">
-        <v>68</v>
-      </c>
-      <c r="X30" t="s">
-        <v>71</v>
-      </c>
-      <c r="Y30" t="s">
-        <v>71</v>
-      </c>
-      <c r="Z30" t="s">
-        <v>66</v>
-      </c>
-      <c r="AA30" t="s">
-        <v>67</v>
-      </c>
-      <c r="AB30" t="s">
-        <v>131</v>
-      </c>
-      <c r="AC30" s="4">
-        <v>16.968</v>
-      </c>
-      <c r="AD30" s="5">
-        <v>21.100000000000001</v>
-      </c>
-      <c r="AE30" s="5">
-        <v>7.4000000000000004</v>
-      </c>
-      <c r="AF30" s="5">
-        <v>6.7999999999999998</v>
-      </c>
-      <c r="AG30" s="5">
-        <v>0.59999999999999998</v>
-      </c>
-      <c r="AH30" s="5">
-        <v>4.7999999999999998</v>
-      </c>
-      <c r="AI30">
-        <v>6</v>
-      </c>
-      <c r="AJ30">
-        <v>91</v>
-      </c>
-      <c r="AK30" s="4">
-        <v>1.7110000000000001</v>
-      </c>
-      <c r="AL30" s="4">
-        <v>1.6679999999999999</v>
-      </c>
-      <c r="AM30" s="4">
-        <v>1.3839999999999999</v>
-      </c>
-      <c r="AN30" s="6">
-        <v>0.050000000000000003</v>
-      </c>
-      <c r="AO30" s="4">
-        <v>0.057000000000000002</v>
-      </c>
-      <c r="AP30" s="4">
-        <v>0.047</v>
-      </c>
-      <c r="AQ30" s="4">
-        <v>0.019</v>
-      </c>
-      <c r="AR30" s="5">
-        <v>1.3999999999999999</v>
-      </c>
-      <c r="AS30" s="5">
-        <v>3.1000000000000001</v>
-      </c>
-    </row>
-    <row r="31"/>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>